--- a/Code/Results/Cases/Case_0_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_115/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.568815435012059</v>
+        <v>10.406695138989</v>
       </c>
       <c r="D2">
-        <v>6.369856783200851</v>
+        <v>9.132519501172135</v>
       </c>
       <c r="E2">
-        <v>8.048574201364175</v>
+        <v>13.6846271886964</v>
       </c>
       <c r="F2">
-        <v>19.5323811483423</v>
+        <v>32.97028064821509</v>
       </c>
       <c r="G2">
-        <v>20.58674009142632</v>
+        <v>34.50059769325176</v>
       </c>
       <c r="H2">
-        <v>8.829439693682723</v>
+        <v>15.90999113674322</v>
       </c>
       <c r="I2">
-        <v>14.92490522804992</v>
+        <v>25.83392270719255</v>
       </c>
       <c r="J2">
-        <v>5.708694031626013</v>
+        <v>10.223115823806</v>
       </c>
       <c r="K2">
-        <v>20.78190022711871</v>
+        <v>15.26217302007433</v>
       </c>
       <c r="L2">
-        <v>5.805575668413978</v>
+        <v>10.37964113127259</v>
       </c>
       <c r="M2">
-        <v>16.04440725677511</v>
+        <v>17.73752886416322</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.07283853351663</v>
+        <v>24.94338156223582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.313614959582983</v>
+        <v>10.37738794702658</v>
       </c>
       <c r="D3">
-        <v>6.171367990756918</v>
+        <v>9.1084069595149</v>
       </c>
       <c r="E3">
-        <v>8.024658963137874</v>
+        <v>13.70990106527195</v>
       </c>
       <c r="F3">
-        <v>19.62402452575313</v>
+        <v>33.12286436698575</v>
       </c>
       <c r="G3">
-        <v>20.77416266100203</v>
+        <v>34.72523185142013</v>
       </c>
       <c r="H3">
-        <v>8.974008826037203</v>
+        <v>15.98074198610993</v>
       </c>
       <c r="I3">
-        <v>15.05624747476096</v>
+        <v>25.95344731472784</v>
       </c>
       <c r="J3">
-        <v>5.770551025057536</v>
+        <v>10.24837593625777</v>
       </c>
       <c r="K3">
-        <v>19.4625763245404</v>
+        <v>14.70484470738192</v>
       </c>
       <c r="L3">
-        <v>5.85676415899262</v>
+        <v>10.40324589937164</v>
       </c>
       <c r="M3">
-        <v>15.16805819456497</v>
+        <v>17.50988231451848</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.29446730216262</v>
+        <v>25.07721638226649</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.155207129582266</v>
+        <v>10.36088196678621</v>
       </c>
       <c r="D4">
-        <v>6.048032349738499</v>
+        <v>9.094587685460294</v>
       </c>
       <c r="E4">
-        <v>8.013501713501313</v>
+        <v>13.72712394443978</v>
       </c>
       <c r="F4">
-        <v>19.70175763321155</v>
+        <v>33.22437503076451</v>
       </c>
       <c r="G4">
-        <v>20.92341818882087</v>
+        <v>34.87404028896091</v>
       </c>
       <c r="H4">
-        <v>9.068624362096541</v>
+        <v>16.02684501451412</v>
       </c>
       <c r="I4">
-        <v>15.15145064565781</v>
+        <v>26.03237175636675</v>
       </c>
       <c r="J4">
-        <v>5.809985695381006</v>
+        <v>10.26474265736157</v>
       </c>
       <c r="K4">
-        <v>18.60540495210397</v>
+        <v>14.35114582578135</v>
       </c>
       <c r="L4">
-        <v>5.889732818496845</v>
+        <v>10.41859956433082</v>
       </c>
       <c r="M4">
-        <v>14.60499050639037</v>
+        <v>17.36942496697583</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.44466691479143</v>
+        <v>25.1648637131977</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.090318951378376</v>
+        <v>10.35453478299798</v>
       </c>
       <c r="D5">
-        <v>5.997474116993947</v>
+        <v>9.089207677334786</v>
       </c>
       <c r="E5">
-        <v>8.009829342710248</v>
+        <v>13.73457147284757</v>
       </c>
       <c r="F5">
-        <v>19.73859620153029</v>
+        <v>33.26770514606132</v>
       </c>
       <c r="G5">
-        <v>20.99233664659585</v>
+        <v>34.9374079089024</v>
       </c>
       <c r="H5">
-        <v>9.108607411610542</v>
+        <v>16.04630231622122</v>
       </c>
       <c r="I5">
-        <v>15.19374740735005</v>
+        <v>26.06592478865971</v>
       </c>
       <c r="J5">
-        <v>5.826423490082607</v>
+        <v>10.27162825979689</v>
       </c>
       <c r="K5">
-        <v>18.24426753295894</v>
+        <v>14.2042997563945</v>
       </c>
       <c r="L5">
-        <v>5.903554025815687</v>
+        <v>10.42507313611618</v>
       </c>
       <c r="M5">
-        <v>14.36942394294168</v>
+        <v>17.31206759493847</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.50925774044686</v>
+        <v>25.20195607985992</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.079526971223958</v>
+        <v>10.35350387029873</v>
       </c>
       <c r="D6">
-        <v>5.989063104694571</v>
+        <v>9.08832961843661</v>
       </c>
       <c r="E6">
-        <v>8.00927197203892</v>
+        <v>13.73583405579673</v>
       </c>
       <c r="F6">
-        <v>19.74501812207053</v>
+        <v>33.27501857501833</v>
       </c>
       <c r="G6">
-        <v>21.00425508443965</v>
+        <v>34.94809448290076</v>
       </c>
       <c r="H6">
-        <v>9.115331499096746</v>
+        <v>16.04957366824407</v>
       </c>
       <c r="I6">
-        <v>15.20097761408348</v>
+        <v>26.07158019882243</v>
       </c>
       <c r="J6">
-        <v>5.829175254526711</v>
+        <v>10.2727846728677</v>
       </c>
       <c r="K6">
-        <v>18.18358690771377</v>
+        <v>14.17975800017957</v>
       </c>
       <c r="L6">
-        <v>5.905872335184403</v>
+        <v>10.42616117883689</v>
       </c>
       <c r="M6">
-        <v>14.32994489840473</v>
+        <v>17.30253771989876</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.52018268584437</v>
+        <v>25.2081982897127</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.154333252850667</v>
+        <v>10.3607948252503</v>
       </c>
       <c r="D7">
-        <v>6.047351614138115</v>
+        <v>9.094514106095795</v>
       </c>
       <c r="E7">
-        <v>8.01344866374583</v>
+        <v>13.72722264659112</v>
       </c>
       <c r="F7">
-        <v>19.70223386133237</v>
+        <v>33.22495144972434</v>
       </c>
       <c r="G7">
-        <v>20.92431551969163</v>
+        <v>34.87488385782866</v>
       </c>
       <c r="H7">
-        <v>9.069157867553708</v>
+        <v>16.02710470906541</v>
       </c>
       <c r="I7">
-        <v>15.15200710777066</v>
+        <v>26.03281863525137</v>
       </c>
       <c r="J7">
-        <v>5.810205888922952</v>
+        <v>10.26483464356716</v>
       </c>
       <c r="K7">
-        <v>18.60058241184174</v>
+        <v>14.34917613213115</v>
       </c>
       <c r="L7">
-        <v>5.889917653188484</v>
+        <v>10.4186859905684</v>
       </c>
       <c r="M7">
-        <v>14.60183806652109</v>
+        <v>17.36865184241396</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.44552452239709</v>
+        <v>25.16535838585552</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.481232755539057</v>
+        <v>10.39628398665708</v>
       </c>
       <c r="D8">
-        <v>6.301761742565725</v>
+        <v>9.124003042531086</v>
       </c>
       <c r="E8">
-        <v>8.039588921381275</v>
+        <v>13.69298808979918</v>
       </c>
       <c r="F8">
-        <v>19.55938292177179</v>
+        <v>33.02126554795758</v>
       </c>
       <c r="G8">
-        <v>20.64396742146474</v>
+        <v>34.57578726352455</v>
       </c>
       <c r="H8">
-        <v>8.878045014321073</v>
+        <v>15.93383396844764</v>
       </c>
       <c r="I8">
-        <v>14.96707233929327</v>
+        <v>25.87398501215189</v>
       </c>
       <c r="J8">
-        <v>5.729721799809174</v>
+        <v>10.23164799286823</v>
       </c>
       <c r="K8">
-        <v>20.33677449257249</v>
+        <v>15.07249442918854</v>
       </c>
       <c r="L8">
-        <v>5.822905624873188</v>
+        <v>10.38760182164389</v>
       </c>
       <c r="M8">
-        <v>15.74751918154025</v>
+        <v>17.65920851413289</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.14622157417322</v>
+        <v>24.98839164328457</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.104904480829376</v>
+        <v>10.47746803527749</v>
       </c>
       <c r="D9">
-        <v>6.786258335674961</v>
+        <v>9.189491605820638</v>
       </c>
       <c r="E9">
-        <v>8.119360474268609</v>
+        <v>13.63936045775201</v>
       </c>
       <c r="F9">
-        <v>19.46010255244188</v>
+        <v>32.68407598978057</v>
       </c>
       <c r="G9">
-        <v>20.38792448160618</v>
+        <v>34.07602962226095</v>
       </c>
       <c r="H9">
-        <v>8.551911761491029</v>
+        <v>15.77202097362168</v>
       </c>
       <c r="I9">
-        <v>14.72737393225995</v>
+        <v>25.60649759054673</v>
       </c>
       <c r="J9">
-        <v>5.583333463409508</v>
+        <v>10.17334294645611</v>
       </c>
       <c r="K9">
-        <v>23.36806654729288</v>
+        <v>16.39275926348912</v>
       </c>
       <c r="L9">
-        <v>5.703743332906797</v>
+        <v>10.33344814749955</v>
       </c>
       <c r="M9">
-        <v>17.79019488225659</v>
+        <v>18.22135072032041</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.67944555948115</v>
+        <v>24.6848098638044</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.548056406096331</v>
+        <v>10.5438630888342</v>
       </c>
       <c r="D10">
-        <v>7.130103219882493</v>
+        <v>9.242049989153998</v>
       </c>
       <c r="E10">
-        <v>8.196024830423644</v>
+        <v>13.6081675615132</v>
       </c>
       <c r="F10">
-        <v>19.51170209560407</v>
+        <v>32.47450284382711</v>
       </c>
       <c r="G10">
-        <v>20.40942261292135</v>
+        <v>33.76234117259202</v>
       </c>
       <c r="H10">
-        <v>8.345409496018087</v>
+        <v>15.66595387073108</v>
       </c>
       <c r="I10">
-        <v>14.63677993053858</v>
+        <v>25.43687137430485</v>
       </c>
       <c r="J10">
-        <v>5.482622550574486</v>
+        <v>10.13460024885442</v>
       </c>
       <c r="K10">
-        <v>25.36895885526091</v>
+        <v>17.29490055476328</v>
       </c>
       <c r="L10">
-        <v>5.623728172443098</v>
+        <v>10.29777576560381</v>
       </c>
       <c r="M10">
-        <v>19.16094035442513</v>
+        <v>18.62677137664884</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.42192673825569</v>
+        <v>24.48829784103403</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.745613448432858</v>
+        <v>10.57546008230016</v>
       </c>
       <c r="D11">
-        <v>7.283308527471298</v>
+        <v>9.266873560106363</v>
       </c>
       <c r="E11">
-        <v>8.234952360497358</v>
+        <v>13.59575317163278</v>
       </c>
       <c r="F11">
-        <v>19.56519656959589</v>
+        <v>32.38749524122212</v>
       </c>
       <c r="G11">
-        <v>20.47099695903848</v>
+        <v>33.63137800426414</v>
       </c>
       <c r="H11">
-        <v>8.259535847536942</v>
+        <v>15.62047610916824</v>
       </c>
       <c r="I11">
-        <v>14.61648793223778</v>
+        <v>25.36556271903203</v>
       </c>
       <c r="J11">
-        <v>5.438264942828484</v>
+        <v>10.11785663550453</v>
       </c>
       <c r="K11">
-        <v>26.23060348486381</v>
+        <v>17.68920979929163</v>
       </c>
       <c r="L11">
-        <v>5.588982802592322</v>
+        <v>10.28243397820069</v>
       </c>
       <c r="M11">
-        <v>19.75558373376442</v>
+        <v>18.80896156733471</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.32624903928134</v>
+        <v>24.40467046668352</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.819789378365796</v>
+        <v>10.58761878465256</v>
       </c>
       <c r="D12">
-        <v>7.34082022516291</v>
+        <v>9.276400467792401</v>
       </c>
       <c r="E12">
-        <v>8.250285482293492</v>
+        <v>13.59130692097155</v>
       </c>
       <c r="F12">
-        <v>19.59000554599112</v>
+        <v>32.35574925273362</v>
       </c>
       <c r="G12">
-        <v>20.50224285058341</v>
+        <v>33.58348416468881</v>
       </c>
       <c r="H12">
-        <v>8.228261124830194</v>
+        <v>15.60365306616083</v>
       </c>
       <c r="I12">
-        <v>14.61200988385411</v>
+        <v>25.33940363908048</v>
       </c>
       <c r="J12">
-        <v>5.42167540380762</v>
+        <v>10.11164233567956</v>
       </c>
       <c r="K12">
-        <v>26.54995033861751</v>
+        <v>17.83611791126552</v>
       </c>
       <c r="L12">
-        <v>5.576065665194206</v>
+        <v>10.27675129624837</v>
       </c>
       <c r="M12">
-        <v>19.97656561606951</v>
+        <v>18.87758215716698</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.2933678838491</v>
+        <v>24.37383340426744</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.803843272203293</v>
+        <v>10.58499169048931</v>
       </c>
       <c r="D13">
-        <v>7.328457069512178</v>
+        <v>9.274343117118299</v>
       </c>
       <c r="E13">
-        <v>8.246956742488043</v>
+        <v>13.59225317606351</v>
       </c>
       <c r="F13">
-        <v>19.58445640997759</v>
+        <v>32.36253279624516</v>
       </c>
       <c r="G13">
-        <v>20.49515356869265</v>
+        <v>33.59372320831945</v>
       </c>
       <c r="H13">
-        <v>8.234939948199305</v>
+        <v>15.60725849525925</v>
       </c>
       <c r="I13">
-        <v>14.61282855275527</v>
+        <v>25.34499989762184</v>
       </c>
       <c r="J13">
-        <v>5.425239044419801</v>
+        <v>10.11297509384652</v>
       </c>
       <c r="K13">
-        <v>26.48148112000676</v>
+        <v>17.8045871202403</v>
       </c>
       <c r="L13">
-        <v>5.578836878391996</v>
+        <v>10.27796952581204</v>
       </c>
       <c r="M13">
-        <v>19.92916031484301</v>
+        <v>18.86282074440441</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.30029610092906</v>
+        <v>24.38043774171515</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.751728949269738</v>
+        <v>10.57645654563012</v>
       </c>
       <c r="D14">
-        <v>7.288050367696234</v>
+        <v>9.267654831750615</v>
       </c>
       <c r="E14">
-        <v>8.236201907156186</v>
+        <v>13.59538227208662</v>
       </c>
       <c r="F14">
-        <v>19.56714508323702</v>
+        <v>32.38485936719024</v>
       </c>
       <c r="G14">
-        <v>20.47340603990357</v>
+        <v>33.62740363082326</v>
       </c>
       <c r="H14">
-        <v>8.256937418147627</v>
+        <v>15.61908408448282</v>
       </c>
       <c r="I14">
-        <v>14.61605412656361</v>
+        <v>25.3633936700507</v>
       </c>
       <c r="J14">
-        <v>5.4368959574592</v>
+        <v>10.11734285601463</v>
       </c>
       <c r="K14">
-        <v>26.25701513503308</v>
+        <v>17.70134478699061</v>
       </c>
       <c r="L14">
-        <v>5.587915273578297</v>
+        <v>10.2819639194367</v>
       </c>
       <c r="M14">
-        <v>19.77384832051692</v>
+        <v>18.81461473288037</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.32347519233557</v>
+        <v>24.40211682329274</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.719723294522217</v>
+        <v>10.57125353068642</v>
       </c>
       <c r="D15">
-        <v>7.263233331443539</v>
+        <v>9.263574428527889</v>
       </c>
       <c r="E15">
-        <v>8.229691638905813</v>
+        <v>13.59733210230597</v>
       </c>
       <c r="F15">
-        <v>19.5571409804815</v>
+        <v>32.39869168692859</v>
       </c>
       <c r="G15">
-        <v>20.46113131495688</v>
+        <v>33.64825547582087</v>
       </c>
       <c r="H15">
-        <v>8.270576120205313</v>
+        <v>15.62637947379829</v>
       </c>
       <c r="I15">
-        <v>14.61845331239423</v>
+        <v>25.37477035491466</v>
       </c>
       <c r="J15">
-        <v>5.444063157767725</v>
+        <v>10.12003464954048</v>
       </c>
       <c r="K15">
-        <v>26.11862098828692</v>
+        <v>17.63778962382442</v>
       </c>
       <c r="L15">
-        <v>5.593507407348461</v>
+        <v>10.28442711629504</v>
       </c>
       <c r="M15">
-        <v>19.67816782612258</v>
+        <v>18.78503743035561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.33811736226187</v>
+        <v>24.41550412941668</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.535059561095569</v>
+        <v>10.54182561859785</v>
       </c>
       <c r="D16">
-        <v>7.120022549149385</v>
+        <v>9.240445710262257</v>
       </c>
       <c r="E16">
-        <v>8.193563185040142</v>
+        <v>13.60901455550107</v>
       </c>
       <c r="F16">
-        <v>19.5088304854233</v>
+        <v>32.48035695037353</v>
       </c>
       <c r="G16">
-        <v>20.40648272573314</v>
+        <v>33.77113705241071</v>
       </c>
       <c r="H16">
-        <v>8.351190817564314</v>
+        <v>15.66898171579316</v>
       </c>
       <c r="I16">
-        <v>14.63854388963032</v>
+        <v>25.44164955345302</v>
       </c>
       <c r="J16">
-        <v>5.485550580961574</v>
+        <v>10.13571216188813</v>
       </c>
       <c r="K16">
-        <v>25.311674695998</v>
+        <v>17.26879944964527</v>
       </c>
       <c r="L16">
-        <v>5.626032337614233</v>
+        <v>10.29879617254692</v>
       </c>
       <c r="M16">
-        <v>19.12149349544014</v>
+        <v>18.61481555594639</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.42863362688186</v>
+        <v>24.49387926116001</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.420699626526748</v>
+        <v>10.52412472285614</v>
       </c>
       <c r="D17">
-        <v>7.031313149006397</v>
+        <v>9.226487886973901</v>
       </c>
       <c r="E17">
-        <v>8.172444340004304</v>
+        <v>13.61663574705365</v>
       </c>
       <c r="F17">
-        <v>19.48705257947634</v>
+        <v>32.53259208994608</v>
       </c>
       <c r="G17">
-        <v>20.38657623091163</v>
+        <v>33.84953479015368</v>
       </c>
       <c r="H17">
-        <v>8.402768086377439</v>
+        <v>15.69582673402561</v>
       </c>
       <c r="I17">
-        <v>14.65636698609826</v>
+        <v>25.48417883480721</v>
       </c>
       <c r="J17">
-        <v>5.511373512719174</v>
+        <v>10.14555500848078</v>
       </c>
       <c r="K17">
-        <v>24.80422916185898</v>
+        <v>17.03824506115709</v>
       </c>
       <c r="L17">
-        <v>5.646410494875845</v>
+        <v>10.30783766460344</v>
       </c>
       <c r="M17">
-        <v>18.77255330713739</v>
+        <v>18.50978136733073</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.48984328578968</v>
+        <v>24.54343798029289</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.354545758965488</v>
+        <v>10.5140752258814</v>
       </c>
       <c r="D18">
-        <v>6.979989719878906</v>
+        <v>9.218546086496787</v>
       </c>
       <c r="E18">
-        <v>8.16067826151825</v>
+        <v>13.62118639669634</v>
       </c>
       <c r="F18">
-        <v>19.47733873277073</v>
+        <v>32.56342000150988</v>
       </c>
       <c r="G18">
-        <v>20.37997476443741</v>
+        <v>33.89573097752569</v>
       </c>
       <c r="H18">
-        <v>8.433187572529626</v>
+        <v>15.71152827451195</v>
       </c>
       <c r="I18">
-        <v>14.6685754181303</v>
+        <v>25.50919154719647</v>
       </c>
       <c r="J18">
-        <v>5.526363345489186</v>
+        <v>10.15129927197849</v>
       </c>
       <c r="K18">
-        <v>24.5077850132721</v>
+        <v>16.90412766742323</v>
       </c>
       <c r="L18">
-        <v>5.658286985698221</v>
+        <v>10.31312149008362</v>
       </c>
       <c r="M18">
-        <v>18.56913168888461</v>
+        <v>18.44916069504458</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.52705353595547</v>
+        <v>24.57248555902748</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.332084224984799</v>
+        <v>10.510695442179</v>
       </c>
       <c r="D19">
-        <v>6.962562314152247</v>
+        <v>9.215872105651107</v>
       </c>
       <c r="E19">
-        <v>8.156759598839514</v>
+        <v>13.62275588978419</v>
       </c>
       <c r="F19">
-        <v>19.47452549770307</v>
+        <v>32.57399226197161</v>
       </c>
       <c r="G19">
-        <v>20.37855710073291</v>
+        <v>33.91156145551201</v>
       </c>
       <c r="H19">
-        <v>8.443614101337124</v>
+        <v>15.71688938264348</v>
       </c>
       <c r="I19">
-        <v>14.67303911284527</v>
+        <v>25.51775499530488</v>
       </c>
       <c r="J19">
-        <v>5.531462257558689</v>
+        <v>10.15325843727223</v>
       </c>
       <c r="K19">
-        <v>24.40662710053799</v>
+        <v>16.8584618608826</v>
       </c>
       <c r="L19">
-        <v>5.662334805483508</v>
+        <v>10.3149248401784</v>
       </c>
       <c r="M19">
-        <v>18.49979081955678</v>
+        <v>18.42860141271501</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.53998872939901</v>
+        <v>24.58241373640592</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.432912880299426</v>
+        <v>10.52599544270221</v>
       </c>
       <c r="D20">
-        <v>7.04078780051616</v>
+        <v>9.227964815999053</v>
       </c>
       <c r="E20">
-        <v>8.174652983503975</v>
+        <v>13.61580716313124</v>
       </c>
       <c r="F20">
-        <v>19.48907809084156</v>
+        <v>32.52695043495993</v>
       </c>
       <c r="G20">
-        <v>20.3881899444161</v>
+        <v>33.84107488612891</v>
       </c>
       <c r="H20">
-        <v>8.397199021896588</v>
+        <v>15.69294202624251</v>
       </c>
       <c r="I20">
-        <v>14.65426571142588</v>
+        <v>25.47959447994324</v>
       </c>
       <c r="J20">
-        <v>5.508610434185872</v>
+        <v>10.14449864247895</v>
       </c>
       <c r="K20">
-        <v>24.85872078194383</v>
+        <v>17.06294484184466</v>
       </c>
       <c r="L20">
-        <v>5.644225094336747</v>
+        <v>10.30686655420065</v>
       </c>
       <c r="M20">
-        <v>18.80998047126931</v>
+        <v>18.52098430190999</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.48311814357647</v>
+        <v>24.53810619028704</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.767053807221616</v>
+        <v>10.57895832543121</v>
       </c>
       <c r="D21">
-        <v>7.299932776353597</v>
+        <v>9.269615941566798</v>
       </c>
       <c r="E21">
-        <v>8.239344721330728</v>
+        <v>13.59445626936004</v>
       </c>
       <c r="F21">
-        <v>19.57210448114702</v>
+        <v>32.37826885867137</v>
       </c>
       <c r="G21">
-        <v>20.47957496884517</v>
+        <v>33.61746466945191</v>
       </c>
       <c r="H21">
-        <v>8.25044175978913</v>
+        <v>15.61559981219636</v>
       </c>
       <c r="I21">
-        <v>14.61501810006655</v>
+        <v>25.35796805236314</v>
       </c>
       <c r="J21">
-        <v>5.433466414607652</v>
+        <v>10.11605651878738</v>
       </c>
       <c r="K21">
-        <v>26.3231341746595</v>
+        <v>17.73173562318274</v>
       </c>
       <c r="L21">
-        <v>5.58524218986397</v>
+        <v>10.28078722820145</v>
       </c>
       <c r="M21">
-        <v>19.81958134633412</v>
+        <v>18.82878445563497</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.31657384879801</v>
+        <v>24.39572659100377</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.981715382728185</v>
+        <v>10.61469780182196</v>
       </c>
       <c r="D22">
-        <v>7.466346729732049</v>
+        <v>9.297573916250313</v>
       </c>
       <c r="E22">
-        <v>8.28507977410592</v>
+        <v>13.58198719989612</v>
       </c>
       <c r="F22">
-        <v>19.65300019015268</v>
+        <v>32.2881044314409</v>
       </c>
       <c r="G22">
-        <v>20.5857128221064</v>
+        <v>33.48123137923421</v>
       </c>
       <c r="H22">
-        <v>8.16182236088391</v>
+        <v>15.56737425060125</v>
       </c>
       <c r="I22">
-        <v>14.60814771155588</v>
+        <v>25.28339833876916</v>
       </c>
       <c r="J22">
-        <v>5.38556556893311</v>
+        <v>10.09820298153849</v>
       </c>
       <c r="K22">
-        <v>27.23979081213751</v>
+        <v>18.1547562986336</v>
       </c>
       <c r="L22">
-        <v>5.548094770331101</v>
+        <v>10.26448246205318</v>
       </c>
       <c r="M22">
-        <v>20.45494495033353</v>
+        <v>19.02776630132103</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.22738548617442</v>
+        <v>24.30751665091303</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.867502671324802</v>
+        <v>10.59552232153538</v>
       </c>
       <c r="D23">
-        <v>7.377811047850885</v>
+        <v>9.282586427418044</v>
       </c>
       <c r="E23">
-        <v>8.260350999811294</v>
+        <v>13.58850647241667</v>
       </c>
       <c r="F23">
-        <v>19.60731264282294</v>
+        <v>32.33558427601773</v>
       </c>
       <c r="G23">
-        <v>20.52466904223674</v>
+        <v>33.55303114056906</v>
       </c>
       <c r="H23">
-        <v>8.208422657204057</v>
+        <v>15.59290076850512</v>
       </c>
       <c r="I23">
-        <v>14.61003045573992</v>
+        <v>25.32274673567316</v>
       </c>
       <c r="J23">
-        <v>5.411020940428896</v>
+        <v>10.10766465550931</v>
       </c>
       <c r="K23">
-        <v>26.75423603982669</v>
+        <v>17.93029830729185</v>
       </c>
       <c r="L23">
-        <v>5.567791951609395</v>
+        <v>10.27311709861122</v>
       </c>
       <c r="M23">
-        <v>20.11808725645935</v>
+        <v>18.92178150522997</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.27309772696183</v>
+        <v>24.35415226204845</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.427392531198548</v>
+        <v>10.52514929422026</v>
       </c>
       <c r="D24">
-        <v>7.036505314054575</v>
+        <v>9.227296838319997</v>
       </c>
       <c r="E24">
-        <v>8.173653287121217</v>
+        <v>13.61618123908285</v>
       </c>
       <c r="F24">
-        <v>19.48815363324885</v>
+        <v>32.52949854417091</v>
       </c>
       <c r="G24">
-        <v>20.38744533649483</v>
+        <v>33.84489610753036</v>
       </c>
       <c r="H24">
-        <v>8.399714413075648</v>
+        <v>15.69424536785142</v>
       </c>
       <c r="I24">
-        <v>14.65520960243597</v>
+        <v>25.48166531613598</v>
       </c>
       <c r="J24">
-        <v>5.509859173690205</v>
+        <v>10.14497595924689</v>
       </c>
       <c r="K24">
-        <v>24.83409978496271</v>
+        <v>17.05178294943721</v>
       </c>
       <c r="L24">
-        <v>5.645212613184915</v>
+        <v>10.30730532607158</v>
       </c>
       <c r="M24">
-        <v>18.79306840370615</v>
+        <v>18.51592018377616</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.48615230823677</v>
+        <v>24.54051496195769</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.93853864494453</v>
+        <v>10.45429629257827</v>
       </c>
       <c r="D25">
-        <v>6.657097597391467</v>
+        <v>9.170977749671147</v>
       </c>
       <c r="E25">
-        <v>8.094655246043741</v>
+        <v>13.6524248460396</v>
       </c>
       <c r="F25">
-        <v>19.46611384995332</v>
+        <v>32.76860911869425</v>
       </c>
       <c r="G25">
-        <v>20.42256559835911</v>
+        <v>34.20187795468318</v>
       </c>
       <c r="H25">
-        <v>8.634598928923513</v>
+        <v>15.81354207066128</v>
       </c>
       <c r="I25">
-        <v>14.77798436692329</v>
+        <v>25.67414273993565</v>
       </c>
       <c r="J25">
-        <v>5.621724719268125</v>
+        <v>10.18839450663497</v>
       </c>
       <c r="K25">
-        <v>22.58788702116614</v>
+        <v>16.04699525697279</v>
       </c>
       <c r="L25">
-        <v>5.734662710512524</v>
+        <v>10.34737330080899</v>
       </c>
       <c r="M25">
-        <v>17.26011717777778</v>
+        <v>18.07040046121693</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.79165750770756</v>
+        <v>24.76228120714851</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_115/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.406695138989</v>
+        <v>7.568815435012059</v>
       </c>
       <c r="D2">
-        <v>9.132519501172135</v>
+        <v>6.369856783200893</v>
       </c>
       <c r="E2">
-        <v>13.6846271886964</v>
+        <v>8.048574201364174</v>
       </c>
       <c r="F2">
-        <v>32.97028064821509</v>
+        <v>19.53238114834229</v>
       </c>
       <c r="G2">
-        <v>34.50059769325176</v>
+        <v>20.58674009142629</v>
       </c>
       <c r="H2">
-        <v>15.90999113674322</v>
+        <v>8.829439693682717</v>
       </c>
       <c r="I2">
-        <v>25.83392270719255</v>
+        <v>14.92490522804991</v>
       </c>
       <c r="J2">
-        <v>10.223115823806</v>
+        <v>5.708694031625982</v>
       </c>
       <c r="K2">
-        <v>15.26217302007433</v>
+        <v>20.78190022711873</v>
       </c>
       <c r="L2">
-        <v>10.37964113127259</v>
+        <v>5.805575668414008</v>
       </c>
       <c r="M2">
-        <v>17.73752886416322</v>
+        <v>16.0444072567751</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.94338156223582</v>
+        <v>14.07283853351662</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.37738794702658</v>
+        <v>7.31361495958293</v>
       </c>
       <c r="D3">
-        <v>9.1084069595149</v>
+        <v>6.171367990756959</v>
       </c>
       <c r="E3">
-        <v>13.70990106527195</v>
+        <v>8.024658963137822</v>
       </c>
       <c r="F3">
-        <v>33.12286436698575</v>
+        <v>19.6240245257532</v>
       </c>
       <c r="G3">
-        <v>34.72523185142013</v>
+        <v>20.77416266100216</v>
       </c>
       <c r="H3">
-        <v>15.98074198610993</v>
+        <v>8.974008826037204</v>
       </c>
       <c r="I3">
-        <v>25.95344731472784</v>
+        <v>15.05624747476101</v>
       </c>
       <c r="J3">
-        <v>10.24837593625777</v>
+        <v>5.770551025057539</v>
       </c>
       <c r="K3">
-        <v>14.70484470738192</v>
+        <v>19.46257632454041</v>
       </c>
       <c r="L3">
-        <v>10.40324589937164</v>
+        <v>5.856764158992619</v>
       </c>
       <c r="M3">
-        <v>17.50988231451848</v>
+        <v>15.16805819456496</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.07721638226649</v>
+        <v>14.29446730216266</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.36088196678621</v>
+        <v>7.155207129582434</v>
       </c>
       <c r="D4">
-        <v>9.094587685460294</v>
+        <v>6.048032349738612</v>
       </c>
       <c r="E4">
-        <v>13.72712394443978</v>
+        <v>8.013501713501437</v>
       </c>
       <c r="F4">
-        <v>33.22437503076451</v>
+        <v>19.7017576332115</v>
       </c>
       <c r="G4">
-        <v>34.87404028896091</v>
+        <v>20.92341818882066</v>
       </c>
       <c r="H4">
-        <v>16.02684501451412</v>
+        <v>9.06862436209642</v>
       </c>
       <c r="I4">
-        <v>26.03237175636675</v>
+        <v>15.15145064565773</v>
       </c>
       <c r="J4">
-        <v>10.26474265736157</v>
+        <v>5.809985695381008</v>
       </c>
       <c r="K4">
-        <v>14.35114582578135</v>
+        <v>18.60540495210402</v>
       </c>
       <c r="L4">
-        <v>10.41859956433082</v>
+        <v>5.889732818496913</v>
       </c>
       <c r="M4">
-        <v>17.36942496697583</v>
+        <v>14.60499050639038</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.1648637131977</v>
+        <v>14.44466691479128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.35453478299798</v>
+        <v>7.090318951378388</v>
       </c>
       <c r="D5">
-        <v>9.089207677334786</v>
+        <v>5.997474116993957</v>
       </c>
       <c r="E5">
-        <v>13.73457147284757</v>
+        <v>8.009829342710189</v>
       </c>
       <c r="F5">
-        <v>33.26770514606132</v>
+        <v>19.73859620153033</v>
       </c>
       <c r="G5">
-        <v>34.9374079089024</v>
+        <v>20.99233664659575</v>
       </c>
       <c r="H5">
-        <v>16.04630231622122</v>
+        <v>9.108607411610604</v>
       </c>
       <c r="I5">
-        <v>26.06592478865971</v>
+        <v>15.1937474073501</v>
       </c>
       <c r="J5">
-        <v>10.27162825979689</v>
+        <v>5.826423490082576</v>
       </c>
       <c r="K5">
-        <v>14.2042997563945</v>
+        <v>18.24426753295892</v>
       </c>
       <c r="L5">
-        <v>10.42507313611618</v>
+        <v>5.903554025815585</v>
       </c>
       <c r="M5">
-        <v>17.31206759493847</v>
+        <v>14.36942394294167</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.20195607985992</v>
+        <v>14.50925774044692</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.35350387029873</v>
+        <v>7.079526971224033</v>
       </c>
       <c r="D6">
-        <v>9.08832961843661</v>
+        <v>5.989063104694532</v>
       </c>
       <c r="E6">
-        <v>13.73583405579673</v>
+        <v>8.009271972038915</v>
       </c>
       <c r="F6">
-        <v>33.27501857501833</v>
+        <v>19.74501812207048</v>
       </c>
       <c r="G6">
-        <v>34.94809448290076</v>
+        <v>21.00425508443955</v>
       </c>
       <c r="H6">
-        <v>16.04957366824407</v>
+        <v>9.115331499096747</v>
       </c>
       <c r="I6">
-        <v>26.07158019882243</v>
+        <v>15.20097761408348</v>
       </c>
       <c r="J6">
-        <v>10.2727846728677</v>
+        <v>5.829175254526712</v>
       </c>
       <c r="K6">
-        <v>14.17975800017957</v>
+        <v>18.18358690771381</v>
       </c>
       <c r="L6">
-        <v>10.42616117883689</v>
+        <v>5.90587233518437</v>
       </c>
       <c r="M6">
-        <v>17.30253771989876</v>
+        <v>14.3299448984047</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.2081982897127</v>
+        <v>14.52018268584434</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.3607948252503</v>
+        <v>7.154333252850681</v>
       </c>
       <c r="D7">
-        <v>9.094514106095795</v>
+        <v>6.047351614138226</v>
       </c>
       <c r="E7">
-        <v>13.72722264659112</v>
+        <v>8.013448663745953</v>
       </c>
       <c r="F7">
-        <v>33.22495144972434</v>
+        <v>19.70223386133263</v>
       </c>
       <c r="G7">
-        <v>34.87488385782866</v>
+        <v>20.92431551969195</v>
       </c>
       <c r="H7">
-        <v>16.02710470906541</v>
+        <v>9.069157867553821</v>
       </c>
       <c r="I7">
-        <v>26.03281863525137</v>
+        <v>15.15200710777083</v>
       </c>
       <c r="J7">
-        <v>10.26483464356716</v>
+        <v>5.810205888923017</v>
       </c>
       <c r="K7">
-        <v>14.34917613213115</v>
+        <v>18.6005824118417</v>
       </c>
       <c r="L7">
-        <v>10.4186859905684</v>
+        <v>5.889917653188579</v>
       </c>
       <c r="M7">
-        <v>17.36865184241396</v>
+        <v>14.60183806652114</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.16535838585552</v>
+        <v>14.44552452239729</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.39628398665708</v>
+        <v>7.481232755539123</v>
       </c>
       <c r="D8">
-        <v>9.124003042531086</v>
+        <v>6.301761742565749</v>
       </c>
       <c r="E8">
-        <v>13.69298808979918</v>
+        <v>8.039588921381334</v>
       </c>
       <c r="F8">
-        <v>33.02126554795758</v>
+        <v>19.55938292177175</v>
       </c>
       <c r="G8">
-        <v>34.57578726352455</v>
+        <v>20.64396742146485</v>
       </c>
       <c r="H8">
-        <v>15.93383396844764</v>
+        <v>8.878045014320957</v>
       </c>
       <c r="I8">
-        <v>25.87398501215189</v>
+        <v>14.96707233929325</v>
       </c>
       <c r="J8">
-        <v>10.23164799286823</v>
+        <v>5.729721799809145</v>
       </c>
       <c r="K8">
-        <v>15.07249442918854</v>
+        <v>20.33677449257253</v>
       </c>
       <c r="L8">
-        <v>10.38760182164389</v>
+        <v>5.822905624873154</v>
       </c>
       <c r="M8">
-        <v>17.65920851413289</v>
+        <v>15.74751918154024</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.98839164328457</v>
+        <v>14.14622157417317</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.47746803527749</v>
+        <v>8.104904480829454</v>
       </c>
       <c r="D9">
-        <v>9.189491605820638</v>
+        <v>6.786258335675035</v>
       </c>
       <c r="E9">
-        <v>13.63936045775201</v>
+        <v>8.119360474268641</v>
       </c>
       <c r="F9">
-        <v>32.68407598978057</v>
+        <v>19.46010255244189</v>
       </c>
       <c r="G9">
-        <v>34.07602962226095</v>
+        <v>20.38792448160605</v>
       </c>
       <c r="H9">
-        <v>15.77202097362168</v>
+        <v>8.551911761491082</v>
       </c>
       <c r="I9">
-        <v>25.60649759054673</v>
+        <v>14.72737393226001</v>
       </c>
       <c r="J9">
-        <v>10.17334294645611</v>
+        <v>5.583333463409507</v>
       </c>
       <c r="K9">
-        <v>16.39275926348912</v>
+        <v>23.3680665472929</v>
       </c>
       <c r="L9">
-        <v>10.33344814749955</v>
+        <v>5.703743332906759</v>
       </c>
       <c r="M9">
-        <v>18.22135072032041</v>
+        <v>17.79019488225658</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.6848098638044</v>
+        <v>13.67944555948113</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.5438630888342</v>
+        <v>8.548056406096253</v>
       </c>
       <c r="D10">
-        <v>9.242049989153998</v>
+        <v>7.130103219882443</v>
       </c>
       <c r="E10">
-        <v>13.6081675615132</v>
+        <v>8.196024830423552</v>
       </c>
       <c r="F10">
-        <v>32.47450284382711</v>
+        <v>19.51170209560395</v>
       </c>
       <c r="G10">
-        <v>33.76234117259202</v>
+        <v>20.40942261292127</v>
       </c>
       <c r="H10">
-        <v>15.66595387073108</v>
+        <v>8.34540949601803</v>
       </c>
       <c r="I10">
-        <v>25.43687137430485</v>
+        <v>14.6367799305385</v>
       </c>
       <c r="J10">
-        <v>10.13460024885442</v>
+        <v>5.482622550574484</v>
       </c>
       <c r="K10">
-        <v>17.29490055476328</v>
+        <v>25.36895885526093</v>
       </c>
       <c r="L10">
-        <v>10.29777576560381</v>
+        <v>5.623728172442975</v>
       </c>
       <c r="M10">
-        <v>18.62677137664884</v>
+        <v>19.1609403544251</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.48829784103403</v>
+        <v>13.42192673825562</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.57546008230016</v>
+        <v>8.745613448432902</v>
       </c>
       <c r="D11">
-        <v>9.266873560106363</v>
+        <v>7.283308527471315</v>
       </c>
       <c r="E11">
-        <v>13.59575317163278</v>
+        <v>8.234952360497354</v>
       </c>
       <c r="F11">
-        <v>32.38749524122212</v>
+        <v>19.5651965695961</v>
       </c>
       <c r="G11">
-        <v>33.63137800426414</v>
+        <v>20.47099695903885</v>
       </c>
       <c r="H11">
-        <v>15.62047610916824</v>
+        <v>8.259535847537002</v>
       </c>
       <c r="I11">
-        <v>25.36556271903203</v>
+        <v>14.61648793223797</v>
       </c>
       <c r="J11">
-        <v>10.11785663550453</v>
+        <v>5.43826494282848</v>
       </c>
       <c r="K11">
-        <v>17.68920979929163</v>
+        <v>26.23060348486379</v>
       </c>
       <c r="L11">
-        <v>10.28243397820069</v>
+        <v>5.588982802592257</v>
       </c>
       <c r="M11">
-        <v>18.80896156733471</v>
+        <v>19.75558373376443</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.40467046668352</v>
+        <v>13.32624903928154</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.58761878465256</v>
+        <v>8.819789378365737</v>
       </c>
       <c r="D12">
-        <v>9.276400467792401</v>
+        <v>7.340820225162922</v>
       </c>
       <c r="E12">
-        <v>13.59130692097155</v>
+        <v>8.250285482293499</v>
       </c>
       <c r="F12">
-        <v>32.35574925273362</v>
+        <v>19.59000554599102</v>
       </c>
       <c r="G12">
-        <v>33.58348416468881</v>
+        <v>20.50224285058327</v>
       </c>
       <c r="H12">
-        <v>15.60365306616083</v>
+        <v>8.228261124830137</v>
       </c>
       <c r="I12">
-        <v>25.33940363908048</v>
+        <v>14.612009883854</v>
       </c>
       <c r="J12">
-        <v>10.11164233567956</v>
+        <v>5.42167540380752</v>
       </c>
       <c r="K12">
-        <v>17.83611791126552</v>
+        <v>26.54995033861752</v>
       </c>
       <c r="L12">
-        <v>10.27675129624837</v>
+        <v>5.576065665194147</v>
       </c>
       <c r="M12">
-        <v>18.87758215716698</v>
+        <v>19.97656561606949</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.37383340426744</v>
+        <v>13.29336788384899</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.58499169048931</v>
+        <v>8.803843272203293</v>
       </c>
       <c r="D13">
-        <v>9.274343117118299</v>
+        <v>7.32845706951223</v>
       </c>
       <c r="E13">
-        <v>13.59225317606351</v>
+        <v>8.246956742488043</v>
       </c>
       <c r="F13">
-        <v>32.36253279624516</v>
+        <v>19.58445640997773</v>
       </c>
       <c r="G13">
-        <v>33.59372320831945</v>
+        <v>20.49515356869273</v>
       </c>
       <c r="H13">
-        <v>15.60725849525925</v>
+        <v>8.234939948199361</v>
       </c>
       <c r="I13">
-        <v>25.34499989762184</v>
+        <v>14.61282855275534</v>
       </c>
       <c r="J13">
-        <v>10.11297509384652</v>
+        <v>5.425239044419703</v>
       </c>
       <c r="K13">
-        <v>17.8045871202403</v>
+        <v>26.48148112000672</v>
       </c>
       <c r="L13">
-        <v>10.27796952581204</v>
+        <v>5.578836878391964</v>
       </c>
       <c r="M13">
-        <v>18.86282074440441</v>
+        <v>19.92916031484301</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.38043774171515</v>
+        <v>13.30029610092914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.57645654563012</v>
+        <v>8.751728949269726</v>
       </c>
       <c r="D14">
-        <v>9.267654831750615</v>
+        <v>7.288050367696107</v>
       </c>
       <c r="E14">
-        <v>13.59538227208662</v>
+        <v>8.236201907156088</v>
       </c>
       <c r="F14">
-        <v>32.38485936719024</v>
+        <v>19.56714508323709</v>
       </c>
       <c r="G14">
-        <v>33.62740363082326</v>
+        <v>20.47340603990382</v>
       </c>
       <c r="H14">
-        <v>15.61908408448282</v>
+        <v>8.256937418147684</v>
       </c>
       <c r="I14">
-        <v>25.3633936700507</v>
+        <v>14.61605412656376</v>
       </c>
       <c r="J14">
-        <v>10.11734285601463</v>
+        <v>5.436895957459233</v>
       </c>
       <c r="K14">
-        <v>17.70134478699061</v>
+        <v>26.25701513503302</v>
       </c>
       <c r="L14">
-        <v>10.2819639194367</v>
+        <v>5.5879152735782</v>
       </c>
       <c r="M14">
-        <v>18.81461473288037</v>
+        <v>19.77384832051694</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.40211682329274</v>
+        <v>13.32347519233572</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.57125353068642</v>
+        <v>8.719723294522408</v>
       </c>
       <c r="D15">
-        <v>9.263574428527889</v>
+        <v>7.263233331443431</v>
       </c>
       <c r="E15">
-        <v>13.59733210230597</v>
+        <v>8.229691638905763</v>
       </c>
       <c r="F15">
-        <v>32.39869168692859</v>
+        <v>19.55714098048161</v>
       </c>
       <c r="G15">
-        <v>33.64825547582087</v>
+        <v>20.4611313149571</v>
       </c>
       <c r="H15">
-        <v>15.62637947379829</v>
+        <v>8.270576120205421</v>
       </c>
       <c r="I15">
-        <v>25.37477035491466</v>
+        <v>14.61845331239444</v>
       </c>
       <c r="J15">
-        <v>10.12003464954048</v>
+        <v>5.444063157767726</v>
       </c>
       <c r="K15">
-        <v>17.63778962382442</v>
+        <v>26.11862098828689</v>
       </c>
       <c r="L15">
-        <v>10.28442711629504</v>
+        <v>5.593507407348266</v>
       </c>
       <c r="M15">
-        <v>18.78503743035561</v>
+        <v>19.6781678261226</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.41550412941668</v>
+        <v>13.33811736226206</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.54182561859785</v>
+        <v>8.535059561095416</v>
       </c>
       <c r="D16">
-        <v>9.240445710262257</v>
+        <v>7.12002254914926</v>
       </c>
       <c r="E16">
-        <v>13.60901455550107</v>
+        <v>8.193563185040151</v>
       </c>
       <c r="F16">
-        <v>32.48035695037353</v>
+        <v>19.50883048542322</v>
       </c>
       <c r="G16">
-        <v>33.77113705241071</v>
+        <v>20.40648272573322</v>
       </c>
       <c r="H16">
-        <v>15.66898171579316</v>
+        <v>8.351190817564202</v>
       </c>
       <c r="I16">
-        <v>25.44164955345302</v>
+        <v>14.63854388963026</v>
       </c>
       <c r="J16">
-        <v>10.13571216188813</v>
+        <v>5.485550580961675</v>
       </c>
       <c r="K16">
-        <v>17.26879944964527</v>
+        <v>25.31167469599798</v>
       </c>
       <c r="L16">
-        <v>10.29879617254692</v>
+        <v>5.626032337614363</v>
       </c>
       <c r="M16">
-        <v>18.61481555594639</v>
+        <v>19.12149349544015</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.49387926116001</v>
+        <v>13.42863362688185</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.52412472285614</v>
+        <v>8.42069962652676</v>
       </c>
       <c r="D17">
-        <v>9.226487886973901</v>
+        <v>7.031313149006426</v>
       </c>
       <c r="E17">
-        <v>13.61663574705365</v>
+        <v>8.172444340004354</v>
       </c>
       <c r="F17">
-        <v>32.53259208994608</v>
+        <v>19.48705257947645</v>
       </c>
       <c r="G17">
-        <v>33.84953479015368</v>
+        <v>20.3865762309119</v>
       </c>
       <c r="H17">
-        <v>15.69582673402561</v>
+        <v>8.402768086377451</v>
       </c>
       <c r="I17">
-        <v>25.48417883480721</v>
+        <v>14.65636698609835</v>
       </c>
       <c r="J17">
-        <v>10.14555500848078</v>
+        <v>5.511373512719206</v>
       </c>
       <c r="K17">
-        <v>17.03824506115709</v>
+        <v>24.80422916185895</v>
       </c>
       <c r="L17">
-        <v>10.30783766460344</v>
+        <v>5.646410494875939</v>
       </c>
       <c r="M17">
-        <v>18.50978136733073</v>
+        <v>18.7725533071374</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.54343798029289</v>
+        <v>13.4898432857898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.5140752258814</v>
+        <v>8.354545758965536</v>
       </c>
       <c r="D18">
-        <v>9.218546086496787</v>
+        <v>6.979989719878859</v>
       </c>
       <c r="E18">
-        <v>13.62118639669634</v>
+        <v>8.160678261518189</v>
       </c>
       <c r="F18">
-        <v>32.56342000150988</v>
+        <v>19.47733873277078</v>
       </c>
       <c r="G18">
-        <v>33.89573097752569</v>
+        <v>20.37997476443746</v>
       </c>
       <c r="H18">
-        <v>15.71152827451195</v>
+        <v>8.433187572529675</v>
       </c>
       <c r="I18">
-        <v>25.50919154719647</v>
+        <v>14.66857541813035</v>
       </c>
       <c r="J18">
-        <v>10.15129927197849</v>
+        <v>5.526363345489123</v>
       </c>
       <c r="K18">
-        <v>16.90412766742323</v>
+        <v>24.50778501327209</v>
       </c>
       <c r="L18">
-        <v>10.31312149008362</v>
+        <v>5.65828698569819</v>
       </c>
       <c r="M18">
-        <v>18.44916069504458</v>
+        <v>18.5691316888846</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.57248555902748</v>
+        <v>13.5270535359555</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.510695442179</v>
+        <v>8.332084224984815</v>
       </c>
       <c r="D19">
-        <v>9.215872105651107</v>
+        <v>6.962562314152329</v>
       </c>
       <c r="E19">
-        <v>13.62275588978419</v>
+        <v>8.156759598839614</v>
       </c>
       <c r="F19">
-        <v>32.57399226197161</v>
+        <v>19.47452549770292</v>
       </c>
       <c r="G19">
-        <v>33.91156145551201</v>
+        <v>20.37855710073256</v>
       </c>
       <c r="H19">
-        <v>15.71688938264348</v>
+        <v>8.443614101337005</v>
       </c>
       <c r="I19">
-        <v>25.51775499530488</v>
+        <v>14.67303911284514</v>
       </c>
       <c r="J19">
-        <v>10.15325843727223</v>
+        <v>5.53146225755872</v>
       </c>
       <c r="K19">
-        <v>16.8584618608826</v>
+        <v>24.40662710053804</v>
       </c>
       <c r="L19">
-        <v>10.3149248401784</v>
+        <v>5.662334805483537</v>
       </c>
       <c r="M19">
-        <v>18.42860141271501</v>
+        <v>18.49979081955679</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.58241373640592</v>
+        <v>13.53998872939884</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.52599544270221</v>
+        <v>8.432912880299472</v>
       </c>
       <c r="D20">
-        <v>9.227964815999053</v>
+        <v>7.04078780051611</v>
       </c>
       <c r="E20">
-        <v>13.61580716313124</v>
+        <v>8.174652983503924</v>
       </c>
       <c r="F20">
-        <v>32.52695043495993</v>
+        <v>19.48907809084162</v>
       </c>
       <c r="G20">
-        <v>33.84107488612891</v>
+        <v>20.38818994441622</v>
       </c>
       <c r="H20">
-        <v>15.69294202624251</v>
+        <v>8.397199021896643</v>
       </c>
       <c r="I20">
-        <v>25.47959447994324</v>
+        <v>14.65426571142596</v>
       </c>
       <c r="J20">
-        <v>10.14449864247895</v>
+        <v>5.508610434185873</v>
       </c>
       <c r="K20">
-        <v>17.06294484184466</v>
+        <v>24.85872078194381</v>
       </c>
       <c r="L20">
-        <v>10.30686655420065</v>
+        <v>5.64422509433672</v>
       </c>
       <c r="M20">
-        <v>18.52098430190999</v>
+        <v>18.8099804712693</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.53810619028704</v>
+        <v>13.48311814357656</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.57895832543121</v>
+        <v>8.767053807221599</v>
       </c>
       <c r="D21">
-        <v>9.269615941566798</v>
+        <v>7.299932776353575</v>
       </c>
       <c r="E21">
-        <v>13.59445626936004</v>
+        <v>8.239344721330827</v>
       </c>
       <c r="F21">
-        <v>32.37826885867137</v>
+        <v>19.57210448114708</v>
       </c>
       <c r="G21">
-        <v>33.61746466945191</v>
+        <v>20.47957496884522</v>
       </c>
       <c r="H21">
-        <v>15.61559981219636</v>
+        <v>8.250441759789231</v>
       </c>
       <c r="I21">
-        <v>25.35796805236314</v>
+        <v>14.61501810006661</v>
       </c>
       <c r="J21">
-        <v>10.11605651878738</v>
+        <v>5.433466414607753</v>
       </c>
       <c r="K21">
-        <v>17.73173562318274</v>
+        <v>26.3231341746595</v>
       </c>
       <c r="L21">
-        <v>10.28078722820145</v>
+        <v>5.585242189864097</v>
       </c>
       <c r="M21">
-        <v>18.82878445563497</v>
+        <v>19.81958134633413</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.39572659100377</v>
+        <v>13.31657384879809</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.61469780182196</v>
+        <v>8.981715382728199</v>
       </c>
       <c r="D22">
-        <v>9.297573916250313</v>
+        <v>7.466346729731993</v>
       </c>
       <c r="E22">
-        <v>13.58198719989612</v>
+        <v>8.285079774105883</v>
       </c>
       <c r="F22">
-        <v>32.2881044314409</v>
+        <v>19.65300019015263</v>
       </c>
       <c r="G22">
-        <v>33.48123137923421</v>
+        <v>20.58571282210636</v>
       </c>
       <c r="H22">
-        <v>15.56737425060125</v>
+        <v>8.161822360883951</v>
       </c>
       <c r="I22">
-        <v>25.28339833876916</v>
+        <v>14.60814771155588</v>
       </c>
       <c r="J22">
-        <v>10.09820298153849</v>
+        <v>5.385565568933144</v>
       </c>
       <c r="K22">
-        <v>18.1547562986336</v>
+        <v>27.23979081213748</v>
       </c>
       <c r="L22">
-        <v>10.26448246205318</v>
+        <v>5.548094770331073</v>
       </c>
       <c r="M22">
-        <v>19.02776630132103</v>
+        <v>20.45494495033354</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.30751665091303</v>
+        <v>13.22738548617442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.59552232153538</v>
+        <v>8.867502671324774</v>
       </c>
       <c r="D23">
-        <v>9.282586427418044</v>
+        <v>7.37781104785097</v>
       </c>
       <c r="E23">
-        <v>13.58850647241667</v>
+        <v>8.260350999811372</v>
       </c>
       <c r="F23">
-        <v>32.33558427601773</v>
+        <v>19.60731264282306</v>
       </c>
       <c r="G23">
-        <v>33.55303114056906</v>
+        <v>20.52466904223692</v>
       </c>
       <c r="H23">
-        <v>15.59290076850512</v>
+        <v>8.208422657204093</v>
       </c>
       <c r="I23">
-        <v>25.32274673567316</v>
+        <v>14.61003045574001</v>
       </c>
       <c r="J23">
-        <v>10.10766465550931</v>
+        <v>5.411020940428926</v>
       </c>
       <c r="K23">
-        <v>17.93029830729185</v>
+        <v>26.75423603982666</v>
       </c>
       <c r="L23">
-        <v>10.27311709861122</v>
+        <v>5.567791951609551</v>
       </c>
       <c r="M23">
-        <v>18.92178150522997</v>
+        <v>20.11808725645937</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.35415226204845</v>
+        <v>13.27309772696193</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.52514929422026</v>
+        <v>8.42739253119858</v>
       </c>
       <c r="D24">
-        <v>9.227296838319997</v>
+        <v>7.036505314054738</v>
       </c>
       <c r="E24">
-        <v>13.61618123908285</v>
+        <v>8.173653287121319</v>
       </c>
       <c r="F24">
-        <v>32.52949854417091</v>
+        <v>19.48815363324884</v>
       </c>
       <c r="G24">
-        <v>33.84489610753036</v>
+        <v>20.38744533649457</v>
       </c>
       <c r="H24">
-        <v>15.69424536785142</v>
+        <v>8.399714413075532</v>
       </c>
       <c r="I24">
-        <v>25.48166531613598</v>
+        <v>14.65520960243589</v>
       </c>
       <c r="J24">
-        <v>10.14497595924689</v>
+        <v>5.509859173690139</v>
       </c>
       <c r="K24">
-        <v>17.05178294943721</v>
+        <v>24.83409978496273</v>
       </c>
       <c r="L24">
-        <v>10.30730532607158</v>
+        <v>5.645212613184976</v>
       </c>
       <c r="M24">
-        <v>18.51592018377616</v>
+        <v>18.79306840370615</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.54051496195769</v>
+        <v>13.48615230823666</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.45429629257827</v>
+        <v>7.938538644944518</v>
       </c>
       <c r="D25">
-        <v>9.170977749671147</v>
+        <v>6.657097597391538</v>
       </c>
       <c r="E25">
-        <v>13.6524248460396</v>
+        <v>8.094655246043887</v>
       </c>
       <c r="F25">
-        <v>32.76860911869425</v>
+        <v>19.46611384995325</v>
       </c>
       <c r="G25">
-        <v>34.20187795468318</v>
+        <v>20.42256559835901</v>
       </c>
       <c r="H25">
-        <v>15.81354207066128</v>
+        <v>8.634598928923442</v>
       </c>
       <c r="I25">
-        <v>25.67414273993565</v>
+        <v>14.77798436692323</v>
       </c>
       <c r="J25">
-        <v>10.18839450663497</v>
+        <v>5.621724719268151</v>
       </c>
       <c r="K25">
-        <v>16.04699525697279</v>
+        <v>22.58788702116617</v>
       </c>
       <c r="L25">
-        <v>10.34737330080899</v>
+        <v>5.734662710512616</v>
       </c>
       <c r="M25">
-        <v>18.07040046121693</v>
+        <v>17.26011717777778</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.76228120714851</v>
+        <v>13.79165750770752</v>
       </c>
     </row>
   </sheetData>
